--- a/biology/Botanique/Cystopteris_alpina/Cystopteris_alpina.xlsx
+++ b/biology/Botanique/Cystopteris_alpina/Cystopteris_alpina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cystoptéris des Alpes
 Cystopteris alpina (en français le Cystoptère des Alpes) est une espèce de fougères de la famille des Dryopteridaceae et du genre Cystopteris.
@@ -512,10 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en 1779 par Jean-Baptiste de Lamarck sous le nom de Polypodium alpinum. Elle est renommée en 1827 par Nicaise Augustin Desvaux sous le nom de Cystopteris alpina[1],[2].
-Synonymes[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en 1779 par Jean-Baptiste de Lamarck sous le nom de Polypodium alpinum. Elle est renommée en 1827 par Nicaise Augustin Desvaux sous le nom de Cystopteris alpina,.
+Synonymes
 Polypodium alpinum Lam., 1779
 Aspidium alpinum (Lam.) Willd., 1805
 Cyathea alpina (Lam.) Roth, 1799
@@ -529,7 +543,7 @@
 Cystopteris fragilis subsp. regia sensu auct. plur.
 Cystopteris regia sensu H.J.Coste, 1906
 Nom en français
-L'espèce peut être désigné en français sous les noms de Cystoptéris des Alpes, Cystoptéride des Alpes[4] ou Cystoptère des Alpes.
+L'espèce peut être désigné en français sous les noms de Cystoptéris des Alpes, Cystoptéride des Alpes ou Cystoptère des Alpes.
 </t>
         </is>
       </c>
@@ -559,6 +573,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -584,9 +600,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, l'espèce est présente dans les Pyrénées et dans les Alpes[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, l'espèce est présente dans les Pyrénées et dans les Alpes.
 </t>
         </is>
       </c>
@@ -615,9 +633,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cystopteris alpina est évaluée Espèce de préoccupation mineure (LC) sur la Liste rouge de la flore vasculaire de France métropolitaine de 2019[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cystopteris alpina est évaluée Espèce de préoccupation mineure (LC) sur la Liste rouge de la flore vasculaire de France métropolitaine de 2019.
 </t>
         </is>
       </c>
